--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Epcam-Epcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Epcam-Epcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -437,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +513,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -522,49 +525,235 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.0582165</v>
+      </c>
+      <c r="H2">
+        <v>0.116433</v>
+      </c>
+      <c r="I2">
+        <v>0.4693547931970906</v>
+      </c>
+      <c r="J2">
+        <v>0.3709368598453593</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.0582165</v>
+      </c>
+      <c r="N2">
+        <v>0.116433</v>
+      </c>
+      <c r="O2">
+        <v>0.4693547931970906</v>
+      </c>
+      <c r="P2">
+        <v>0.3709368598453593</v>
+      </c>
+      <c r="Q2">
+        <v>0.00338916087225</v>
+      </c>
+      <c r="R2">
+        <v>0.013556643489</v>
+      </c>
+      <c r="S2">
+        <v>0.2202939218970836</v>
+      </c>
+      <c r="T2">
+        <v>0.1375941539919358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.0582165</v>
+      </c>
+      <c r="H3">
+        <v>0.116433</v>
+      </c>
+      <c r="I3">
+        <v>0.4693547931970906</v>
+      </c>
+      <c r="J3">
+        <v>0.3709368598453593</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
+      <c r="M3">
         <v>0.06581866666666666</v>
       </c>
-      <c r="H2">
+      <c r="N3">
         <v>0.197456</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+      <c r="O3">
+        <v>0.5306452068029094</v>
+      </c>
+      <c r="P3">
+        <v>0.6290631401546407</v>
+      </c>
+      <c r="Q3">
+        <v>0.003831732408</v>
+      </c>
+      <c r="R3">
+        <v>0.022990394448</v>
+      </c>
+      <c r="S3">
+        <v>0.2490608713000069</v>
+      </c>
+      <c r="T3">
+        <v>0.2333427058534236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M2">
+      <c r="G4">
         <v>0.06581866666666666</v>
       </c>
-      <c r="N2">
+      <c r="H4">
         <v>0.197456</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="I4">
+        <v>0.5306452068029094</v>
+      </c>
+      <c r="J4">
+        <v>0.6290631401546407</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.0582165</v>
+      </c>
+      <c r="N4">
+        <v>0.116433</v>
+      </c>
+      <c r="O4">
+        <v>0.4693547931970906</v>
+      </c>
+      <c r="P4">
+        <v>0.3709368598453593</v>
+      </c>
+      <c r="Q4">
+        <v>0.003831732408</v>
+      </c>
+      <c r="R4">
+        <v>0.022990394448</v>
+      </c>
+      <c r="S4">
+        <v>0.2490608713000069</v>
+      </c>
+      <c r="T4">
+        <v>0.2333427058534236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06581866666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.197456</v>
+      </c>
+      <c r="I5">
+        <v>0.5306452068029094</v>
+      </c>
+      <c r="J5">
+        <v>0.6290631401546407</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.06581866666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.197456</v>
+      </c>
+      <c r="O5">
+        <v>0.5306452068029094</v>
+      </c>
+      <c r="P5">
+        <v>0.6290631401546407</v>
+      </c>
+      <c r="Q5">
         <v>0.004332096881777777</v>
       </c>
-      <c r="R2">
+      <c r="R5">
         <v>0.03898887193599999</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="S5">
+        <v>0.2815843355029025</v>
+      </c>
+      <c r="T5">
+        <v>0.3957204343012171</v>
       </c>
     </row>
   </sheetData>
